--- a/qldsv/build/web/uploads/score/bảng điểm sinh viên.xlsx
+++ b/qldsv/build/web/uploads/score/bảng điểm sinh viên.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B01AD7-31FD-438F-AF63-DE6347FF1B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2532C729-E326-4127-AF2D-6DD3DF2160BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10416" yWindow="864" windowWidth="12624" windowHeight="8880" xr2:uid="{A2B086D6-7A83-4D69-BF93-7E65D0598FF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2B086D6-7A83-4D69-BF93-7E65D0598FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Mã SV</t>
   </si>
@@ -57,17 +57,20 @@
     <t>Lớp</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>DT17CTT01</t>
+    <t>D19CN1</t>
+  </si>
+  <si>
+    <t>Lê Thị B</t>
+  </si>
+  <si>
+    <t>Nguyễn VĂn A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +82,34 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,10 +147,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -130,9 +162,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FA17F217-56AA-42A2-BEA0-2CF101A86369}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,21 +495,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84513CAE-41D3-456B-ACEA-B2002AC643CD}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,31 +532,65 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>2117100111</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="C3" s="6">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H5" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/qldsv/build/web/uploads/score/bảng điểm sinh viên.xlsx
+++ b/qldsv/build/web/uploads/score/bảng điểm sinh viên.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2532C729-E326-4127-AF2D-6DD3DF2160BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3853978-4C75-4365-8F11-369679ACC0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2B086D6-7A83-4D69-BF93-7E65D0598FF3}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,16 +545,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="6">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E2" s="7">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="F2" s="1">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -571,13 +571,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>

--- a/qldsv/build/web/uploads/score/bảng điểm sinh viên.xlsx
+++ b/qldsv/build/web/uploads/score/bảng điểm sinh viên.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3853978-4C75-4365-8F11-369679ACC0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3E5AB1-04C6-4AAB-8C67-2CFBE258F54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2B086D6-7A83-4D69-BF93-7E65D0598FF3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Mã SV</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Nguyễn VĂn A</t>
+  </si>
+  <si>
+    <t>D19CN2</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,19 +548,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="6">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="7">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -568,16 +571,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
